--- a/Assets/Editor/UIDataTool/Data/测试UIData.xlsx
+++ b/Assets/Editor/UIDataTool/Data/测试UIData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity project\PacMan\Assets\Editor\UIDataTool\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343EB9AA-1135-4C01-8908-A301C069C3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="StartPanel" sheetId="1" r:id="rId1"/>
@@ -18,13 +12,20 @@
     <sheet name="CustomPanel" sheetId="4" r:id="rId3"/>
     <sheet name="FinishPanel" sheetId="5" r:id="rId4"/>
     <sheet name="GamePanel" sheetId="6" r:id="rId5"/>
+    <sheet name="SearchRoomPanel" sheetId="7" r:id="rId6"/>
+    <sheet name="RoomPanel" sheetId="8" r:id="rId7"/>
+    <sheet name="MapEditPanel" sheetId="9" r:id="rId8"/>
+    <sheet name="LobbyPanel" sheetId="10" r:id="rId9"/>
+    <sheet name="TipPanel" sheetId="11" r:id="rId10"/>
+    <sheet name="SettingMainPanel" sheetId="12" r:id="rId11"/>
+    <sheet name="OnlineModePanel" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
   <si>
     <t>组件名字</t>
   </si>
@@ -38,190 +39,278 @@
     <t>English</t>
   </si>
   <si>
+    <t>txtStartLocal</t>
+  </si>
+  <si>
+    <t>局域网</t>
+  </si>
+  <si>
+    <t>txtSS</t>
+  </si>
+  <si>
+    <t>Steam好友</t>
+  </si>
+  <si>
+    <t>txtQuit</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>QUIT</t>
+  </si>
+  <si>
+    <t>txtBack</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>txtSure</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>Sure</t>
+  </si>
+  <si>
+    <t>txtVol</t>
+  </si>
+  <si>
+    <t>音量</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>txtSound</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>SFX</t>
+  </si>
+  <si>
+    <t>txtScoreMode</t>
+  </si>
+  <si>
+    <t>积分模式</t>
+  </si>
+  <si>
+    <t>ScoreMode</t>
+  </si>
+  <si>
+    <t>txtTool</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>txtBrushMonster</t>
+  </si>
+  <si>
+    <t>怪物增加</t>
+  </si>
+  <si>
+    <t>BrushMonster</t>
+  </si>
+  <si>
+    <t>txtNext</t>
+  </si>
+  <si>
+    <t>下一局</t>
+  </si>
+  <si>
+    <t>txtBlood</t>
+  </si>
+  <si>
+    <t>100/100</t>
+  </si>
+  <si>
+    <t>txtCreateRoom</t>
+  </si>
+  <si>
+    <t>创建房间</t>
+  </si>
+  <si>
+    <t>txtSearch</t>
+  </si>
+  <si>
+    <t>搜索房间</t>
+  </si>
+  <si>
     <t>txtStart</t>
   </si>
   <si>
     <t>开始</t>
   </si>
   <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>设置</t>
-  </si>
-  <si>
-    <t>SETTING</t>
-  </si>
-  <si>
-    <t>txtIntroduce</t>
-  </si>
-  <si>
-    <t>介绍</t>
-  </si>
-  <si>
-    <t>INTRO</t>
-  </si>
-  <si>
-    <t>txtQuit</t>
-  </si>
-  <si>
-    <t>退出</t>
-  </si>
-  <si>
-    <t>QUIT</t>
-  </si>
-  <si>
-    <t>txtBack</t>
-  </si>
-  <si>
-    <t>返回</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>txtSure</t>
-  </si>
-  <si>
-    <t>确定</t>
-  </si>
-  <si>
-    <t>Sure</t>
-  </si>
-  <si>
-    <t>txtVol</t>
-  </si>
-  <si>
-    <t>音量</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>txtSound</t>
-  </si>
-  <si>
-    <t>音效</t>
-  </si>
-  <si>
-    <t>SFX</t>
-  </si>
-  <si>
-    <t>txtSetting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtCustom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUSTOM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtScoreMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtTool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScoreMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtBrushMonster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BrushMonster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtWinPlayerName</t>
-  </si>
-  <si>
-    <t>赢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增援时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtBrushTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BrushTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtMenu</t>
-  </si>
-  <si>
-    <t>主菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游玩介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>txtW</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>txtS</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>txtPrepare</t>
+  </si>
+  <si>
+    <t>准备</t>
+  </si>
+  <si>
+    <t>txtInvited</t>
+  </si>
+  <si>
+    <t>邀请</t>
+  </si>
+  <si>
+    <t>txtA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>txtD</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>txtC&amp;C</t>
+  </si>
+  <si>
+    <t>确认并清空</t>
+  </si>
+  <si>
+    <t>txtMapname</t>
+  </si>
+  <si>
+    <t>地图名</t>
+  </si>
+  <si>
+    <t>txtMapsave</t>
+  </si>
+  <si>
+    <t>保存地图</t>
+  </si>
+  <si>
+    <t>txtMapLoad</t>
+  </si>
+  <si>
+    <t>读取地图</t>
+  </si>
+  <si>
+    <t>txtWrite</t>
+  </si>
+  <si>
+    <t>写入</t>
+  </si>
+  <si>
+    <t>txtInput</t>
+  </si>
+  <si>
+    <t>请输入</t>
+  </si>
+  <si>
+    <t>txtNotice</t>
+  </si>
+  <si>
+    <t>公告</t>
+  </si>
+  <si>
+    <t>txtQR</t>
+  </si>
+  <si>
+    <t>快速对战</t>
+  </si>
+  <si>
+    <t>txtHost</t>
+  </si>
+  <si>
+    <t>主持</t>
+  </si>
+  <si>
+    <t>txtJR</t>
+  </si>
+  <si>
+    <t>加入</t>
+  </si>
+  <si>
+    <t>txtStory</t>
+  </si>
+  <si>
+    <t>故事模式</t>
+  </si>
+  <si>
+    <t>txtFM</t>
+  </si>
+  <si>
+    <t>杜撰模式</t>
+  </si>
+  <si>
+    <t>txtCF</t>
+  </si>
+  <si>
+    <t>创作工坊</t>
+  </si>
+  <si>
+    <t>txtHB</t>
+  </si>
+  <si>
+    <t>角色图鉴</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>txtSA</t>
+  </si>
+  <si>
+    <t>设置A</t>
+  </si>
+  <si>
+    <t>txtSB</t>
+  </si>
+  <si>
+    <t>设置B</t>
+  </si>
+  <si>
+    <t>txtPS</t>
+  </si>
+  <si>
+    <t>通过Steam游玩</t>
+  </si>
+  <si>
+    <t>txtPwL</t>
+  </si>
+  <si>
+    <t>本地联机</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,30 +319,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -261,25 +665,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -537,25 +1227,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.2166666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,91 +1260,192 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" ht="13" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,74 +1459,75 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3581D8-0283-42B8-8A01-09BCCFD55594}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -748,80 +1541,84 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4507D8-F021-4833-BF1A-730778835A0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -833,47 +1630,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818B92E9-8170-4F42-93ED-B87A264E20EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -885,41 +1674,351 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="4" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>